--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.3041526768932</v>
+        <v>22.13105833333334</v>
       </c>
       <c r="H2">
-        <v>20.3041526768932</v>
+        <v>66.39317500000001</v>
       </c>
       <c r="I2">
-        <v>0.7241766454791391</v>
+        <v>0.7283384536091189</v>
       </c>
       <c r="J2">
-        <v>0.7241766454791391</v>
+        <v>0.7432480947607982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0207728428516</v>
+        <v>11.62309533333333</v>
       </c>
       <c r="N2">
-        <v>10.0207728428516</v>
+        <v>34.869286</v>
       </c>
       <c r="O2">
-        <v>0.6031009376756717</v>
+        <v>0.6137236594822451</v>
       </c>
       <c r="P2">
-        <v>0.6031009376756717</v>
+        <v>0.6196931423587276</v>
       </c>
       <c r="Q2">
-        <v>203.463301741724</v>
+        <v>257.2314008358945</v>
       </c>
       <c r="R2">
-        <v>203.463301741724</v>
+        <v>2315.082607523051</v>
       </c>
       <c r="S2">
-        <v>0.4367516139312913</v>
+        <v>0.4469985410906278</v>
       </c>
       <c r="T2">
-        <v>0.4367516139312913</v>
+        <v>0.4605857473944564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.3041526768932</v>
+        <v>22.13105833333334</v>
       </c>
       <c r="H3">
-        <v>20.3041526768932</v>
+        <v>66.39317500000001</v>
       </c>
       <c r="I3">
-        <v>0.7241766454791391</v>
+        <v>0.7283384536091189</v>
       </c>
       <c r="J3">
-        <v>0.7241766454791391</v>
+        <v>0.7432480947607982</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12782337773926</v>
+        <v>6.561137666666667</v>
       </c>
       <c r="N3">
-        <v>6.12782337773926</v>
+        <v>19.683413</v>
       </c>
       <c r="O3">
-        <v>0.368803492802634</v>
+        <v>0.3464417441028301</v>
       </c>
       <c r="P3">
-        <v>0.368803492802634</v>
+        <v>0.3498114660080688</v>
       </c>
       <c r="Q3">
-        <v>124.4202614386533</v>
+        <v>145.2049204340306</v>
       </c>
       <c r="R3">
-        <v>124.4202614386533</v>
+        <v>1306.844283906275</v>
       </c>
       <c r="S3">
-        <v>0.2670788762588013</v>
+        <v>0.2523268441655013</v>
       </c>
       <c r="T3">
-        <v>0.2670788762588013</v>
+        <v>0.2599967056359789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.3041526768932</v>
+        <v>22.13105833333334</v>
       </c>
       <c r="H4">
-        <v>20.3041526768932</v>
+        <v>66.39317500000001</v>
       </c>
       <c r="I4">
-        <v>0.7241766454791391</v>
+        <v>0.7283384536091189</v>
       </c>
       <c r="J4">
-        <v>0.7241766454791391</v>
+        <v>0.7432480947607982</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.466819569461264</v>
+        <v>0.1161066666666666</v>
       </c>
       <c r="N4">
-        <v>0.466819569461264</v>
+        <v>0.34832</v>
       </c>
       <c r="O4">
-        <v>0.02809556952169414</v>
+        <v>0.006130673999773197</v>
       </c>
       <c r="P4">
-        <v>0.02809556952169414</v>
+        <v>0.00619030499639115</v>
       </c>
       <c r="Q4">
-        <v>9.478375810903055</v>
+        <v>2.569563412888889</v>
       </c>
       <c r="R4">
-        <v>9.478375810903055</v>
+        <v>23.126070716</v>
       </c>
       <c r="S4">
-        <v>0.0203461552890464</v>
+        <v>0.004465205620576442</v>
       </c>
       <c r="T4">
-        <v>0.0203461552890464</v>
+        <v>0.004600932394555972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.93654221839139</v>
+        <v>22.13105833333334</v>
       </c>
       <c r="H5">
-        <v>5.93654221839139</v>
+        <v>66.39317500000001</v>
       </c>
       <c r="I5">
-        <v>0.2117352690295955</v>
+        <v>0.7283384536091189</v>
       </c>
       <c r="J5">
-        <v>0.2117352690295955</v>
+        <v>0.7432480947607982</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.0207728428516</v>
+        <v>0.09100066666666667</v>
       </c>
       <c r="N5">
-        <v>10.0207728428516</v>
+        <v>0.273002</v>
       </c>
       <c r="O5">
-        <v>0.6031009376756717</v>
+        <v>0.004805024871629773</v>
       </c>
       <c r="P5">
-        <v>0.6031009376756717</v>
+        <v>0.004851761726644399</v>
       </c>
       <c r="Q5">
-        <v>59.48874104249843</v>
+        <v>2.013941062372223</v>
       </c>
       <c r="R5">
-        <v>59.48874104249843</v>
+        <v>18.12546956135001</v>
       </c>
       <c r="S5">
-        <v>0.1276977392907597</v>
+        <v>0.003499684384556184</v>
       </c>
       <c r="T5">
-        <v>0.1276977392907597</v>
+        <v>0.00360606265956181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.93654221839139</v>
+        <v>22.13105833333334</v>
       </c>
       <c r="H6">
-        <v>5.93654221839139</v>
+        <v>66.39317500000001</v>
       </c>
       <c r="I6">
-        <v>0.2117352690295955</v>
+        <v>0.7283384536091189</v>
       </c>
       <c r="J6">
-        <v>0.2117352690295955</v>
+        <v>0.7432480947607982</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.12782337773926</v>
+        <v>0.547306</v>
       </c>
       <c r="N6">
-        <v>6.12782337773926</v>
+        <v>1.094612</v>
       </c>
       <c r="O6">
-        <v>0.368803492802634</v>
+        <v>0.02889889754352207</v>
       </c>
       <c r="P6">
-        <v>0.368803492802634</v>
+        <v>0.01945332491016798</v>
       </c>
       <c r="Q6">
-        <v>36.37808218879484</v>
+        <v>12.11246101218333</v>
       </c>
       <c r="R6">
-        <v>36.37808218879484</v>
+        <v>72.6747660731</v>
       </c>
       <c r="S6">
-        <v>0.07808870676762018</v>
+        <v>0.02104817834785723</v>
       </c>
       <c r="T6">
-        <v>0.07808870676762018</v>
+        <v>0.01445864667624512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.93654221839139</v>
+        <v>6.388929</v>
       </c>
       <c r="H7">
-        <v>5.93654221839139</v>
+        <v>19.166787</v>
       </c>
       <c r="I7">
-        <v>0.2117352690295955</v>
+        <v>0.2102611903141454</v>
       </c>
       <c r="J7">
-        <v>0.2117352690295955</v>
+        <v>0.2145653965251102</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.466819569461264</v>
+        <v>11.62309533333333</v>
       </c>
       <c r="N7">
-        <v>0.466819569461264</v>
+        <v>34.869286</v>
       </c>
       <c r="O7">
-        <v>0.02809556952169414</v>
+        <v>0.6137236594822451</v>
       </c>
       <c r="P7">
-        <v>0.02809556952169414</v>
+        <v>0.6196931423587276</v>
       </c>
       <c r="Q7">
-        <v>2.771294082478086</v>
+        <v>74.259130844898</v>
       </c>
       <c r="R7">
-        <v>2.771294082478086</v>
+        <v>668.3321776040821</v>
       </c>
       <c r="S7">
-        <v>0.005948822971215612</v>
+        <v>0.1290422671666901</v>
       </c>
       <c r="T7">
-        <v>0.005948822971215612</v>
+        <v>0.1329647048140919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.7968741200201</v>
+        <v>6.388929</v>
       </c>
       <c r="H8">
-        <v>1.7968741200201</v>
+        <v>19.166787</v>
       </c>
       <c r="I8">
-        <v>0.06408808549126536</v>
+        <v>0.2102611903141454</v>
       </c>
       <c r="J8">
-        <v>0.06408808549126536</v>
+        <v>0.2145653965251102</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0207728428516</v>
+        <v>6.561137666666667</v>
       </c>
       <c r="N8">
-        <v>10.0207728428516</v>
+        <v>19.683413</v>
       </c>
       <c r="O8">
-        <v>0.6031009376756717</v>
+        <v>0.3464417441028301</v>
       </c>
       <c r="P8">
-        <v>0.6031009376756717</v>
+        <v>0.3498114660080688</v>
       </c>
       <c r="Q8">
-        <v>18.00606738392028</v>
+        <v>41.918642711559</v>
       </c>
       <c r="R8">
-        <v>18.00606738392028</v>
+        <v>377.267784404031</v>
       </c>
       <c r="S8">
-        <v>0.03865158445362075</v>
+        <v>0.0728432534895696</v>
       </c>
       <c r="T8">
-        <v>0.03865158445362075</v>
+        <v>0.07505743591305139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.7968741200201</v>
+        <v>6.388929</v>
       </c>
       <c r="H9">
-        <v>1.7968741200201</v>
+        <v>19.166787</v>
       </c>
       <c r="I9">
-        <v>0.06408808549126536</v>
+        <v>0.2102611903141454</v>
       </c>
       <c r="J9">
-        <v>0.06408808549126536</v>
+        <v>0.2145653965251102</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>6.12782337773926</v>
+        <v>0.1161066666666666</v>
       </c>
       <c r="N9">
-        <v>6.12782337773926</v>
+        <v>0.34832</v>
       </c>
       <c r="O9">
-        <v>0.368803492802634</v>
+        <v>0.006130673999773197</v>
       </c>
       <c r="P9">
-        <v>0.368803492802634</v>
+        <v>0.00619030499639115</v>
       </c>
       <c r="Q9">
-        <v>11.01092723951383</v>
+        <v>0.7417972497599999</v>
       </c>
       <c r="R9">
-        <v>11.01092723951383</v>
+        <v>6.676175247839999</v>
       </c>
       <c r="S9">
-        <v>0.02363590977621248</v>
+        <v>0.001289042812620295</v>
       </c>
       <c r="T9">
-        <v>0.02363590977621248</v>
+        <v>0.001328225246162038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.388929</v>
+      </c>
+      <c r="H10">
+        <v>19.166787</v>
+      </c>
+      <c r="I10">
+        <v>0.2102611903141454</v>
+      </c>
+      <c r="J10">
+        <v>0.2145653965251102</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09100066666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.273002</v>
+      </c>
+      <c r="O10">
+        <v>0.004805024871629773</v>
+      </c>
+      <c r="P10">
+        <v>0.004851761726644399</v>
+      </c>
+      <c r="Q10">
+        <v>0.5813967982860001</v>
+      </c>
+      <c r="R10">
+        <v>5.232571184574001</v>
+      </c>
+      <c r="S10">
+        <v>0.00101031024899795</v>
+      </c>
+      <c r="T10">
+        <v>0.001041020178722809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.388929</v>
+      </c>
+      <c r="H11">
+        <v>19.166787</v>
+      </c>
+      <c r="I11">
+        <v>0.2102611903141454</v>
+      </c>
+      <c r="J11">
+        <v>0.2145653965251102</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.547306</v>
+      </c>
+      <c r="N11">
+        <v>1.094612</v>
+      </c>
+      <c r="O11">
+        <v>0.02889889754352207</v>
+      </c>
+      <c r="P11">
+        <v>0.01945332491016798</v>
+      </c>
+      <c r="Q11">
+        <v>3.496699175274</v>
+      </c>
+      <c r="R11">
+        <v>20.980195051644</v>
+      </c>
+      <c r="S11">
+        <v>0.006076316596267482</v>
+      </c>
+      <c r="T11">
+        <v>0.004174010373081995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03321933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.099658</v>
+      </c>
+      <c r="I12">
+        <v>0.001093256251260428</v>
+      </c>
+      <c r="J12">
+        <v>0.001115636036801548</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.62309533333333</v>
+      </c>
+      <c r="N12">
+        <v>34.869286</v>
+      </c>
+      <c r="O12">
+        <v>0.6137236594822451</v>
+      </c>
+      <c r="P12">
+        <v>0.6196931423587276</v>
+      </c>
+      <c r="Q12">
+        <v>0.3861114782431111</v>
+      </c>
+      <c r="R12">
+        <v>3.475003304188</v>
+      </c>
+      <c r="S12">
+        <v>0.0006709572272753904</v>
+      </c>
+      <c r="T12">
+        <v>0.0006913520013741883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03321933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.099658</v>
+      </c>
+      <c r="I13">
+        <v>0.001093256251260428</v>
+      </c>
+      <c r="J13">
+        <v>0.001115636036801548</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.561137666666667</v>
+      </c>
+      <c r="N13">
+        <v>19.683413</v>
+      </c>
+      <c r="O13">
+        <v>0.3464417441028301</v>
+      </c>
+      <c r="P13">
+        <v>0.3498114660080688</v>
+      </c>
+      <c r="Q13">
+        <v>0.2179566191948889</v>
+      </c>
+      <c r="R13">
+        <v>1.961609572754</v>
+      </c>
+      <c r="S13">
+        <v>0.0003787496024379843</v>
+      </c>
+      <c r="T13">
+        <v>0.0003902622775649813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03321933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.099658</v>
+      </c>
+      <c r="I14">
+        <v>0.001093256251260428</v>
+      </c>
+      <c r="J14">
+        <v>0.001115636036801548</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1161066666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.34832</v>
+      </c>
+      <c r="O14">
+        <v>0.006130673999773197</v>
+      </c>
+      <c r="P14">
+        <v>0.00619030499639115</v>
+      </c>
+      <c r="Q14">
+        <v>0.003856986062222221</v>
+      </c>
+      <c r="R14">
+        <v>0.03471287456</v>
+      </c>
+      <c r="S14">
+        <v>6.702397674691817E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.906127332766642E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03321933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.099658</v>
+      </c>
+      <c r="I15">
+        <v>0.001093256251260428</v>
+      </c>
+      <c r="J15">
+        <v>0.001115636036801548</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09100066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.273002</v>
+      </c>
+      <c r="O15">
+        <v>0.004805024871629773</v>
+      </c>
+      <c r="P15">
+        <v>0.004851761726644399</v>
+      </c>
+      <c r="Q15">
+        <v>0.003022981479555556</v>
+      </c>
+      <c r="R15">
+        <v>0.027206833316</v>
+      </c>
+      <c r="S15">
+        <v>5.253123478371083E-06</v>
+      </c>
+      <c r="T15">
+        <v>5.412800224218992E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03321933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.099658</v>
+      </c>
+      <c r="I16">
+        <v>0.001093256251260428</v>
+      </c>
+      <c r="J16">
+        <v>0.001115636036801548</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.547306</v>
+      </c>
+      <c r="N16">
+        <v>1.094612</v>
+      </c>
+      <c r="O16">
+        <v>0.02889889754352207</v>
+      </c>
+      <c r="P16">
+        <v>0.01945332491016798</v>
+      </c>
+      <c r="Q16">
+        <v>0.01818114044933333</v>
+      </c>
+      <c r="R16">
+        <v>0.109086842696</v>
+      </c>
+      <c r="S16">
+        <v>3.159390039399012E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.170283030539263E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.003851666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.011555</v>
+      </c>
+      <c r="I17">
+        <v>0.0001267592765589741</v>
+      </c>
+      <c r="J17">
+        <v>0.000129354135194785</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.62309533333333</v>
+      </c>
+      <c r="N17">
+        <v>34.869286</v>
+      </c>
+      <c r="O17">
+        <v>0.6137236594822451</v>
+      </c>
+      <c r="P17">
+        <v>0.6196931423587276</v>
+      </c>
+      <c r="Q17">
+        <v>0.04476828885888889</v>
+      </c>
+      <c r="R17">
+        <v>0.40291459973</v>
+      </c>
+      <c r="S17">
+        <v>7.779516708309555E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.015987051595201E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.003851666666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.011555</v>
+      </c>
+      <c r="I18">
+        <v>0.0001267592765589741</v>
+      </c>
+      <c r="J18">
+        <v>0.000129354135194785</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.561137666666667</v>
+      </c>
+      <c r="N18">
+        <v>19.683413</v>
+      </c>
+      <c r="O18">
+        <v>0.3464417441028301</v>
+      </c>
+      <c r="P18">
+        <v>0.3498114660080688</v>
+      </c>
+      <c r="Q18">
+        <v>0.02527131524611111</v>
+      </c>
+      <c r="R18">
+        <v>0.227441837215</v>
+      </c>
+      <c r="S18">
+        <v>4.391470485230397E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.524955966669368E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.7968741200201</v>
-      </c>
-      <c r="H10">
-        <v>1.7968741200201</v>
-      </c>
-      <c r="I10">
-        <v>0.06408808549126536</v>
-      </c>
-      <c r="J10">
-        <v>0.06408808549126536</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.466819569461264</v>
-      </c>
-      <c r="N10">
-        <v>0.466819569461264</v>
-      </c>
-      <c r="O10">
-        <v>0.02809556952169414</v>
-      </c>
-      <c r="P10">
-        <v>0.02809556952169414</v>
-      </c>
-      <c r="Q10">
-        <v>0.8388160030838707</v>
-      </c>
-      <c r="R10">
-        <v>0.8388160030838707</v>
-      </c>
-      <c r="S10">
-        <v>0.001800591261432123</v>
-      </c>
-      <c r="T10">
-        <v>0.001800591261432123</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.003851666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.011555</v>
+      </c>
+      <c r="I19">
+        <v>0.0001267592765589741</v>
+      </c>
+      <c r="J19">
+        <v>0.000129354135194785</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1161066666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.34832</v>
+      </c>
+      <c r="O19">
+        <v>0.006130673999773197</v>
+      </c>
+      <c r="P19">
+        <v>0.00619030499639115</v>
+      </c>
+      <c r="Q19">
+        <v>0.0004472041777777777</v>
+      </c>
+      <c r="R19">
+        <v>0.004024837599999999</v>
+      </c>
+      <c r="S19">
+        <v>7.771198010301626E-07</v>
+      </c>
+      <c r="T19">
+        <v>8.007415494001339E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.003851666666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.011555</v>
+      </c>
+      <c r="I20">
+        <v>0.0001267592765589741</v>
+      </c>
+      <c r="J20">
+        <v>0.000129354135194785</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09100066666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.273002</v>
+      </c>
+      <c r="O20">
+        <v>0.004805024871629773</v>
+      </c>
+      <c r="P20">
+        <v>0.004851761726644399</v>
+      </c>
+      <c r="Q20">
+        <v>0.0003505042344444445</v>
+      </c>
+      <c r="R20">
+        <v>0.00315453811</v>
+      </c>
+      <c r="S20">
+        <v>6.090814765756675E-07</v>
+      </c>
+      <c r="T20">
+        <v>6.275954423212431E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.003851666666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.011555</v>
+      </c>
+      <c r="I21">
+        <v>0.0001267592765589741</v>
+      </c>
+      <c r="J21">
+        <v>0.000129354135194785</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.547306</v>
+      </c>
+      <c r="N21">
+        <v>1.094612</v>
+      </c>
+      <c r="O21">
+        <v>0.02889889754352207</v>
+      </c>
+      <c r="P21">
+        <v>0.01945332491016798</v>
+      </c>
+      <c r="Q21">
+        <v>0.002108040276666666</v>
+      </c>
+      <c r="R21">
+        <v>0.01264824166</v>
+      </c>
+      <c r="S21">
+        <v>3.663203345968772E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.516368020417947E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.8286205</v>
+      </c>
+      <c r="H22">
+        <v>3.657241</v>
+      </c>
+      <c r="I22">
+        <v>0.06018034054891636</v>
+      </c>
+      <c r="J22">
+        <v>0.04094151854209526</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.62309533333333</v>
+      </c>
+      <c r="N22">
+        <v>34.869286</v>
+      </c>
+      <c r="O22">
+        <v>0.6137236594822451</v>
+      </c>
+      <c r="P22">
+        <v>0.6196931423587276</v>
+      </c>
+      <c r="Q22">
+        <v>21.25423039998767</v>
+      </c>
+      <c r="R22">
+        <v>127.525382399926</v>
+      </c>
+      <c r="S22">
+        <v>0.03693409883056869</v>
+      </c>
+      <c r="T22">
+        <v>0.02537117827828913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.8286205</v>
+      </c>
+      <c r="H23">
+        <v>3.657241</v>
+      </c>
+      <c r="I23">
+        <v>0.06018034054891636</v>
+      </c>
+      <c r="J23">
+        <v>0.04094151854209526</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.561137666666667</v>
+      </c>
+      <c r="N23">
+        <v>19.683413</v>
+      </c>
+      <c r="O23">
+        <v>0.3464417441028301</v>
+      </c>
+      <c r="P23">
+        <v>0.3498114660080688</v>
+      </c>
+      <c r="Q23">
+        <v>11.99783084058883</v>
+      </c>
+      <c r="R23">
+        <v>71.98698504353301</v>
+      </c>
+      <c r="S23">
+        <v>0.02084898214046885</v>
+      </c>
+      <c r="T23">
+        <v>0.01432181262180688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.8286205</v>
+      </c>
+      <c r="H24">
+        <v>3.657241</v>
+      </c>
+      <c r="I24">
+        <v>0.06018034054891636</v>
+      </c>
+      <c r="J24">
+        <v>0.04094151854209526</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1161066666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.34832</v>
+      </c>
+      <c r="O24">
+        <v>0.006130673999773197</v>
+      </c>
+      <c r="P24">
+        <v>0.00619030499639115</v>
+      </c>
+      <c r="Q24">
+        <v>0.2123150308533333</v>
+      </c>
+      <c r="R24">
+        <v>1.27389018512</v>
+      </c>
+      <c r="S24">
+        <v>0.0003689460491007382</v>
+      </c>
+      <c r="T24">
+        <v>0.0002534404867909732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.8286205</v>
+      </c>
+      <c r="H25">
+        <v>3.657241</v>
+      </c>
+      <c r="I25">
+        <v>0.06018034054891636</v>
+      </c>
+      <c r="J25">
+        <v>0.04094151854209526</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.09100066666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.273002</v>
+      </c>
+      <c r="O25">
+        <v>0.004805024871629773</v>
+      </c>
+      <c r="P25">
+        <v>0.004851761726644399</v>
+      </c>
+      <c r="Q25">
+        <v>0.1664056845803333</v>
+      </c>
+      <c r="R25">
+        <v>0.9984341074820001</v>
+      </c>
+      <c r="S25">
+        <v>0.0002891680331206929</v>
+      </c>
+      <c r="T25">
+        <v>0.0001986384926932398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.8286205</v>
+      </c>
+      <c r="H26">
+        <v>3.657241</v>
+      </c>
+      <c r="I26">
+        <v>0.06018034054891636</v>
+      </c>
+      <c r="J26">
+        <v>0.04094151854209526</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.547306</v>
+      </c>
+      <c r="N26">
+        <v>1.094612</v>
+      </c>
+      <c r="O26">
+        <v>0.02889889754352207</v>
+      </c>
+      <c r="P26">
+        <v>0.01945332491016798</v>
+      </c>
+      <c r="Q26">
+        <v>1.000814971373</v>
+      </c>
+      <c r="R26">
+        <v>4.003259885492</v>
+      </c>
+      <c r="S26">
+        <v>0.001739145495657401</v>
+      </c>
+      <c r="T26">
+        <v>0.0007964486625150458</v>
       </c>
     </row>
   </sheetData>
